--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_11_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372065.683107326</v>
+        <v>1350901.816492754</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11472469.70099468</v>
+        <v>10335732.67964878</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673262</v>
+        <v>3164216.382767969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9517961.016389495</v>
+        <v>9937830.191842262</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>18.28182508062843</v>
       </c>
       <c r="F2" t="n">
-        <v>40.36809222617124</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>50.48273419507654</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,52 +746,52 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.46519227902342</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.46519227902341</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,34 +816,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41.42160119810562</v>
+      </c>
+      <c r="J4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.386866521745219</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="R4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.34580260830151</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>53.79631798062264</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>25.3458026083015</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>47.38379687733242</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>47.38379687733241</v>
       </c>
       <c r="X6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>52.60630734092062</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="S7" t="n">
-        <v>52.60630734092059</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>112.7439629205532</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>247.17556935092</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>247.17556935092</v>
+        <v>13.53711942580812</v>
       </c>
       <c r="H8" t="n">
-        <v>91.52854343319419</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>121.4198058860913</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.763892165004705</v>
+        <v>38.95961063746667</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>195.4095580444362</v>
       </c>
       <c r="W8" t="n">
-        <v>247.17556935092</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>195.4095580444362</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>195.4095580444362</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60.87329657020334</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.2987083231134</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>46.84287403213406</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.42012589203902</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>148.7258247854105</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8600691660335</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>66.04909172082785</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>195.4095580444362</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.0145525444507</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>19.8432207939631</v>
       </c>
       <c r="R10" t="n">
-        <v>130.7027795807043</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>231.2273086707632</v>
+        <v>195.4095580444362</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>152.2735179315762</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>195.4095580444362</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>195.4095580444362</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>314.0103144996422</v>
+        <v>96.47490797857169</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>57.02146927219752</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>243.7491467488897</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>85.8588336304696</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>127.3165365479904</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>331.568106421686</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>233.6876255317287</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1897,16 +1897,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.5108914069254</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>121.0389903687767</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>114.9470312412304</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.7563425597173</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>224.7562560951392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>66.92785444135635</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>46.20607885179086</v>
+        <v>22.45511406853512</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>83.41943806107159</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>112.7390399452111</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>168.1158122680958</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>336.3816127624657</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -3000,25 +3000,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>53.76343456052604</v>
+        <v>103.1842210687156</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>86.85840809344678</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>77.42639794035698</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>106.5867442799587</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3207,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>166.2700604784289</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>126.7498226612763</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>351.3975998694276</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>73.57457550997981</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>11.92708979827377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>71.31461021972538</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>6.176684336810649</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>144.287593494226</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.26790245020096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>99.50249420969843</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9746808062639</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>130.7010833068295</v>
       </c>
       <c r="X43" t="n">
-        <v>209.3584761600176</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>377.7449946201775</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>58.92805047991894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>79.49219230501798</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>100.4748474648615</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="E2" t="n">
-        <v>150.9382759771985</v>
+        <v>30.48646439055056</v>
       </c>
       <c r="F2" t="n">
-        <v>110.1624252436922</v>
+        <v>23.54096364134708</v>
       </c>
       <c r="G2" t="n">
-        <v>59.16976444058463</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="H2" t="n">
-        <v>59.16976444058463</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="I2" t="n">
         <v>8.177103637477007</v>
@@ -4333,13 +4333,13 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L2" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="M2" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N2" t="n">
         <v>101.9751230740546</v>
@@ -4354,28 +4354,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="U2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="V2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="W2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="C3" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="D3" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="E3" t="n">
-        <v>99.94561517409093</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="F3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4412,16 +4412,16 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>54.01652558873189</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
         <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
-        <v>103.9944324418577</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N3" t="n">
-        <v>151.9530299271804</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
         <v>151.9530299271804</v>
@@ -4433,28 +4433,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="U3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="V3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="W3" t="n">
-        <v>150.9382759771985</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="X3" t="n">
-        <v>150.9382759771985</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="Y3" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.038618735606123</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C4" t="n">
-        <v>4.038618735606123</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="D4" t="n">
-        <v>4.038618735606123</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="E4" t="n">
-        <v>4.038618735606123</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="F4" t="n">
-        <v>4.038618735606123</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="G4" t="n">
-        <v>4.038618735606123</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="H4" t="n">
-        <v>4.038618735606123</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="I4" t="n">
-        <v>4.038618735606123</v>
+        <v>109.0982747669908</v>
       </c>
       <c r="J4" t="n">
-        <v>4.038618735606123</v>
+        <v>58.10561396388323</v>
       </c>
       <c r="K4" t="n">
-        <v>4.038618735606123</v>
+        <v>40.48137202578608</v>
       </c>
       <c r="L4" t="n">
-        <v>37.46089541307574</v>
+        <v>73.9036487032557</v>
       </c>
       <c r="M4" t="n">
-        <v>83.0891231149967</v>
+        <v>119.5318764051767</v>
       </c>
       <c r="N4" t="n">
-        <v>133.0670299681225</v>
+        <v>169.5097832583024</v>
       </c>
       <c r="O4" t="n">
-        <v>163.2134205911211</v>
+        <v>199.656173881301</v>
       </c>
       <c r="P4" t="n">
-        <v>165.4881834901262</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q4" t="n">
-        <v>157.016601144929</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="R4" t="n">
-        <v>106.0239403418214</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S4" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T4" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U4" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V4" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W4" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X4" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.16612652666438</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="C5" t="n">
-        <v>52.16612652666438</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="D5" t="n">
-        <v>52.16612652666438</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="E5" t="n">
-        <v>52.16612652666438</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="F5" t="n">
-        <v>45.22062577746091</v>
+        <v>19.61880496099473</v>
       </c>
       <c r="G5" t="n">
-        <v>29.90552625491599</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
-        <v>29.90552625491599</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4570,7 +4570,7 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L5" t="n">
         <v>57.56206023926622</v>
@@ -4579,10 +4579,10 @@
         <v>103.5077640033671</v>
       </c>
       <c r="N5" t="n">
-        <v>103.5077640033671</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7661188041835</v>
+        <v>210.024473605</v>
       </c>
       <c r="P5" t="n">
         <v>210.024473605</v>
@@ -4594,25 +4594,25 @@
         <v>160.8455567905485</v>
       </c>
       <c r="S5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="T5" t="n">
-        <v>52.16612652666438</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="U5" t="n">
-        <v>52.16612652666438</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="V5" t="n">
-        <v>52.16612652666438</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="W5" t="n">
-        <v>52.16612652666438</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="X5" t="n">
-        <v>52.16612652666438</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.16612652666438</v>
+        <v>26.56430571019821</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.5058416586064</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D6" t="n">
         <v>4.303705438449811</v>
@@ -4646,25 +4646,25 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>57.56206023926622</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="L6" t="n">
-        <v>110.8204150400826</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="M6" t="n">
-        <v>110.8204150400826</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="N6" t="n">
-        <v>164.078769840899</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="O6" t="n">
-        <v>164.078769840899</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="P6" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4685,13 +4685,13 @@
         <v>160.8455567905485</v>
       </c>
       <c r="W6" t="n">
-        <v>160.8455567905485</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="X6" t="n">
-        <v>106.5058416586064</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="Y6" t="n">
-        <v>106.5058416586064</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="C7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="D7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="E7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="F7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="G7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="H7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="I7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="J7" t="n">
         <v>19.38678689876497</v>
@@ -4746,31 +4746,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="S7" t="n">
-        <v>128.0662171626491</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="T7" t="n">
-        <v>128.0662171626491</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="U7" t="n">
-        <v>128.0662171626491</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="V7" t="n">
-        <v>128.0662171626491</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="W7" t="n">
-        <v>128.0662171626491</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="X7" t="n">
-        <v>73.72650203070704</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>734.2179728421397</v>
+        <v>150.1349142274668</v>
       </c>
       <c r="C8" t="n">
-        <v>734.2179728421397</v>
+        <v>36.25212339862516</v>
       </c>
       <c r="D8" t="n">
-        <v>734.2179728421397</v>
+        <v>36.25212339862516</v>
       </c>
       <c r="E8" t="n">
-        <v>734.2179728421397</v>
+        <v>36.25212339862516</v>
       </c>
       <c r="F8" t="n">
-        <v>484.5456805684831</v>
+        <v>29.30662264942169</v>
       </c>
       <c r="G8" t="n">
-        <v>234.8733882948266</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="H8" t="n">
-        <v>142.420314119883</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="I8" t="n">
-        <v>19.7740455480736</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="J8" t="n">
-        <v>34.63596196991814</v>
+        <v>152.1590502084103</v>
       </c>
       <c r="K8" t="n">
-        <v>107.6486403778438</v>
+        <v>156.6174072837983</v>
       </c>
       <c r="L8" t="n">
-        <v>235.1290860234758</v>
+        <v>199.0501553286564</v>
       </c>
       <c r="M8" t="n">
-        <v>408.6450821005549</v>
+        <v>277.934200887909</v>
       </c>
       <c r="N8" t="n">
-        <v>589.5825567783827</v>
+        <v>362.7084811538738</v>
       </c>
       <c r="O8" t="n">
-        <v>747.1014220864867</v>
+        <v>429.4231688460065</v>
       </c>
       <c r="P8" t="n">
-        <v>847.0391284402505</v>
+        <v>602.7688028607785</v>
       </c>
       <c r="Q8" t="n">
-        <v>988.7022774036799</v>
+        <v>781.638232177745</v>
       </c>
       <c r="R8" t="n">
-        <v>983.8902651157963</v>
+        <v>742.2850901196978</v>
       </c>
       <c r="S8" t="n">
-        <v>983.8902651157963</v>
+        <v>742.2850901196978</v>
       </c>
       <c r="T8" t="n">
-        <v>983.8902651157963</v>
+        <v>742.2850901196978</v>
       </c>
       <c r="U8" t="n">
-        <v>983.8902651157963</v>
+        <v>742.2850901196978</v>
       </c>
       <c r="V8" t="n">
-        <v>983.8902651157963</v>
+        <v>544.9016981556208</v>
       </c>
       <c r="W8" t="n">
-        <v>734.2179728421397</v>
+        <v>544.9016981556208</v>
       </c>
       <c r="X8" t="n">
-        <v>734.2179728421397</v>
+        <v>347.5183061915438</v>
       </c>
       <c r="Y8" t="n">
-        <v>734.2179728421397</v>
+        <v>150.1349142274668</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>317.3363161742213</v>
+        <v>349.3232489301374</v>
       </c>
       <c r="C9" t="n">
-        <v>317.3363161742213</v>
+        <v>174.8702196490104</v>
       </c>
       <c r="D9" t="n">
-        <v>168.4019065129701</v>
+        <v>174.8702196490104</v>
       </c>
       <c r="E9" t="n">
-        <v>168.4019065129701</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="F9" t="n">
-        <v>168.4019065129701</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="G9" t="n">
-        <v>168.4019065129701</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="H9" t="n">
-        <v>67.09007992396658</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="I9" t="n">
-        <v>19.7740455480736</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="J9" t="n">
-        <v>134.637979184616</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="K9" t="n">
-        <v>195.7589954999974</v>
+        <v>30.19082499971359</v>
       </c>
       <c r="L9" t="n">
-        <v>324.2662858930839</v>
+        <v>223.6462874637054</v>
       </c>
       <c r="M9" t="n">
-        <v>531.9111995835216</v>
+        <v>319.9026048548736</v>
       </c>
       <c r="N9" t="n">
-        <v>720.1200244659005</v>
+        <v>506.8351715284535</v>
       </c>
       <c r="O9" t="n">
-        <v>870.0745344560714</v>
+        <v>588.182769713753</v>
       </c>
       <c r="P9" t="n">
-        <v>971.0931827030333</v>
+        <v>781.638232177745</v>
       </c>
       <c r="Q9" t="n">
-        <v>988.7022774036799</v>
+        <v>781.638232177745</v>
       </c>
       <c r="R9" t="n">
-        <v>965.0455845834384</v>
+        <v>781.638232177745</v>
       </c>
       <c r="S9" t="n">
-        <v>814.8174787395894</v>
+        <v>781.638232177745</v>
       </c>
       <c r="T9" t="n">
-        <v>814.8174787395894</v>
+        <v>781.638232177745</v>
       </c>
       <c r="U9" t="n">
-        <v>586.6759947334949</v>
+        <v>781.638232177745</v>
       </c>
       <c r="V9" t="n">
-        <v>586.6759947334949</v>
+        <v>781.638232177745</v>
       </c>
       <c r="W9" t="n">
-        <v>586.6759947334949</v>
+        <v>781.638232177745</v>
       </c>
       <c r="X9" t="n">
-        <v>378.8244945279621</v>
+        <v>714.9219779142825</v>
       </c>
       <c r="Y9" t="n">
-        <v>378.8244945279621</v>
+        <v>517.5385859502055</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.3341996333773</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="C10" t="n">
-        <v>174.3341996333773</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="D10" t="n">
-        <v>174.3341996333773</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="E10" t="n">
-        <v>174.3341996333773</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="F10" t="n">
-        <v>174.3341996333773</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="G10" t="n">
-        <v>174.3341996333773</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="H10" t="n">
-        <v>19.7740455480736</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="I10" t="n">
-        <v>19.7740455480736</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="J10" t="n">
-        <v>19.7740455480736</v>
+        <v>15.6327646435549</v>
       </c>
       <c r="K10" t="n">
-        <v>116.9091610082694</v>
+        <v>84.68128914508384</v>
       </c>
       <c r="L10" t="n">
-        <v>296.7351009505149</v>
+        <v>228.5660625350571</v>
       </c>
       <c r="M10" t="n">
-        <v>496.7254642568465</v>
+        <v>390.6615050354189</v>
       </c>
       <c r="N10" t="n">
-        <v>697.3951201460476</v>
+        <v>554.3372966361035</v>
       </c>
       <c r="O10" t="n">
-        <v>866.7297311702165</v>
+        <v>689.5020863593838</v>
       </c>
       <c r="P10" t="n">
-        <v>988.1040621305264</v>
+        <v>781.638232177745</v>
       </c>
       <c r="Q10" t="n">
-        <v>988.7022774036799</v>
+        <v>761.5945748101054</v>
       </c>
       <c r="R10" t="n">
-        <v>856.6792677262008</v>
+        <v>761.5945748101054</v>
       </c>
       <c r="S10" t="n">
-        <v>856.6792677262008</v>
+        <v>761.5945748101054</v>
       </c>
       <c r="T10" t="n">
-        <v>856.6792677262008</v>
+        <v>761.5945748101054</v>
       </c>
       <c r="U10" t="n">
-        <v>856.6792677262008</v>
+        <v>761.5945748101054</v>
       </c>
       <c r="V10" t="n">
-        <v>623.1163296749248</v>
+        <v>564.2111828460284</v>
       </c>
       <c r="W10" t="n">
-        <v>623.1163296749248</v>
+        <v>410.3995485717089</v>
       </c>
       <c r="X10" t="n">
-        <v>395.1267787769074</v>
+        <v>213.0161566076319</v>
       </c>
       <c r="Y10" t="n">
-        <v>174.3341996333773</v>
+        <v>15.6327646435549</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1127.748203495403</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C11" t="n">
-        <v>1127.748203495403</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D11" t="n">
-        <v>769.4825048886521</v>
+        <v>1006.81911994452</v>
       </c>
       <c r="E11" t="n">
-        <v>383.6942522904079</v>
+        <v>621.0308673462755</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218339</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.72178906653</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796416</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535336</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559524</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>124.1095601414738</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1734.047335491682</v>
+        <v>2222.416181075866</v>
       </c>
       <c r="C14" t="n">
-        <v>1365.084818551271</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1365.084818551271</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>979.2965659530264</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>568.3106611634189</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>153.2382110084154</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5311,19 +5311,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2884.252265792696</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W14" t="n">
-        <v>2884.252265792696</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X14" t="n">
-        <v>2510.786507531616</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y14" t="n">
-        <v>2120.647175555804</v>
+        <v>2609.016021139988</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>195.1146786018707</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1179.430764345701</v>
+        <v>1914.669427940026</v>
       </c>
       <c r="C17" t="n">
-        <v>1179.430764345701</v>
+        <v>1914.669427940026</v>
       </c>
       <c r="D17" t="n">
-        <v>821.1650657389509</v>
+        <v>1556.403729333276</v>
       </c>
       <c r="E17" t="n">
-        <v>821.1650657389509</v>
+        <v>1170.615476735032</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>759.629571945424</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>344.5571217904205</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5536,7 +5536,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796417</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X17" t="n">
-        <v>1904.487375535337</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y17" t="n">
-        <v>1514.348043559526</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>384.3315924698002</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>384.3315924698002</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5703,22 +5703,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676413</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>680.6375233676413</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>565.9800573000399</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1617.939223126803</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C20" t="n">
-        <v>1617.939223126803</v>
+        <v>1442.617229168678</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5770,10 +5770,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3099.207040771387</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2768.144153427816</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.144153427816</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X20" t="n">
-        <v>2394.678395166736</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y20" t="n">
-        <v>2004.539063190924</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658019</v>
+        <v>1461.107307794392</v>
       </c>
       <c r="V22" t="n">
-        <v>1705.527932658019</v>
+        <v>1461.107307794392</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.501411349798</v>
+        <v>1171.690137757432</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.51186045178</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.71928130825</v>
+        <v>943.7005868594143</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1571.829289912211</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>1202.866772971799</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1202.866772971799</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>817.078520373555</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>2688.203035419217</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>2335.434380149103</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>1961.968621888023</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>1571.829289912211</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>651.5308283972846</v>
+        <v>974.4083489326723</v>
       </c>
       <c r="C25" t="n">
-        <v>604.8580214762837</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D25" t="n">
-        <v>604.8580214762837</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>456.9449278938906</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>310.0549803959803</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408147</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X25" t="n">
-        <v>872.3234075408147</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y25" t="n">
-        <v>651.5308283972846</v>
+        <v>1156.056813762912</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1685.375546116517</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>1316.413029176106</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1232.150970528558</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>2071.975386180639</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2071.975386180639</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811086</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999816</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>312.38440256016</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927786</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064629</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1837.464090846021</v>
+        <v>1752.635190735755</v>
       </c>
       <c r="T28" t="n">
-        <v>1837.464090846021</v>
+        <v>1752.635190735755</v>
       </c>
       <c r="U28" t="n">
-        <v>1837.464090846021</v>
+        <v>1463.532323861399</v>
       </c>
       <c r="V28" t="n">
-        <v>1837.464090846021</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.044275313594</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.054724415577</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>2373.951269987333</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>2004.988753046921</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1646.72305444017</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>1260.934801841926</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>849.9488970523183</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>434.8764468973148</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>137.292846506082</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>95.29594774555073</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>451.5807277249291</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>1106.304059860229</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1557.338273108637</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>2090.870177780561</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2637.648994839344</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>3468.887775090548</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>4182.242862537493</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>4640.721065046481</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>4764.797387277536</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>4654.506718804631</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>4448.528971188854</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>4194.99849446269</v>
       </c>
       <c r="V29" t="n">
-        <v>3155.791869823214</v>
+        <v>3863.93560711912</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>3524.156200288346</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>3150.690442027266</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>2760.551110051455</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811075</v>
+        <v>970.327685794476</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999805</v>
+        <v>795.874656513349</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387292</v>
+        <v>646.9402468520977</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332737</v>
+        <v>487.7027918466422</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601587</v>
+        <v>341.1682338735272</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927768</v>
+        <v>204.8051337061453</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064433</v>
+        <v>114.3032393440128</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>95.29594774555073</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>188.973217236168</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>427.2374162165151</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>793.9355765291804</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.211901751496</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1714.734945305951</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.696224724005</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2436.195816200108</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2593.837373846708</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125855</v>
+        <v>2593.693020439224</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619335</v>
+        <v>2464.255133932704</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297191</v>
+        <v>2271.612133610559</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431606</v>
+        <v>2043.544286744975</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199864</v>
+        <v>1808.392178513232</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471662</v>
+        <v>1554.154821785031</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266129</v>
+        <v>1346.303321579498</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.543022814544</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>804.7815815475007</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>635.8453986195938</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>485.728759207258</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>485.728759207258</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>338.8388117093476</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>338.8388117093476</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>192.6216249272054</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>95.29594774555073</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>140.4185801924863</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>344.4057631413626</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>660.9655615898587</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>1005.122607189408</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.530983895272</v>
       </c>
       <c r="O31" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.860582815686</v>
       </c>
       <c r="P31" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.468083249345</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.078379401859</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.46409084602</v>
+        <v>1866.247922159387</v>
       </c>
       <c r="S31" t="n">
-        <v>1837.46409084602</v>
+        <v>1674.562037986214</v>
       </c>
       <c r="T31" t="n">
-        <v>1837.46409084602</v>
+        <v>1452.79542255574</v>
       </c>
       <c r="U31" t="n">
-        <v>1548.361223971664</v>
+        <v>1163.692555681383</v>
       </c>
       <c r="V31" t="n">
-        <v>1548.361223971664</v>
+        <v>909.0080674754962</v>
       </c>
       <c r="W31" t="n">
-        <v>1548.361223971664</v>
+        <v>909.0080674754962</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>804.7815815475007</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>804.7815815475007</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1986.901740067214</v>
+        <v>2110.777477381419</v>
       </c>
       <c r="C32" t="n">
-        <v>1617.939223126803</v>
+        <v>1741.814960441008</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1383.549261834257</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>997.761009236013</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>586.7751044464055</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>171.702654291402</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>83.96688854044564</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>83.96688854044564</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>272.846019499471</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>868.1174089768408</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1319.151622225249</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1852.683526897174</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2399.462343955956</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2902.434814835293</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3615.789902282238</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>4074.268104791227</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>4198.344427022282</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>4198.344427022282</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>4198.344427022282</v>
       </c>
       <c r="U32" t="n">
-        <v>3137.106670368228</v>
+        <v>3944.813950296118</v>
       </c>
       <c r="V32" t="n">
-        <v>3137.106670368228</v>
+        <v>3613.751062952547</v>
       </c>
       <c r="W32" t="n">
-        <v>3137.106670368228</v>
+        <v>3260.982407682433</v>
       </c>
       <c r="X32" t="n">
-        <v>2763.640912107148</v>
+        <v>2887.516649421353</v>
       </c>
       <c r="Y32" t="n">
-        <v>2373.501580131336</v>
+        <v>2497.377317445541</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>958.9986265893708</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>784.5455973082438</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>635.6111876469927</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>476.3737326415371</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>329.8391746684222</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>193.4760745010402</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>102.9741801389077</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>83.96688854044564</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>177.6441580310627</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>415.9083570114098</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>782.6065173240751</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1229.882842546391</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1703.405886100846</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2114.367165518901</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2424.866756995004</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2582.508314641604</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2582.363961234119</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2452.926074727599</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2260.283074405454</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2032.21522753987</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1797.063119308127</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1542.825762579926</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1334.974262374393</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1127.213963609439</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>880.2242361621292</v>
+        <v>864.8528278705047</v>
       </c>
       <c r="C34" t="n">
-        <v>880.2242361621292</v>
+        <v>695.9166449425978</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>545.8000055302621</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>397.8869119478689</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>397.8869119478689</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>230.1840753225879</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>83.96688854044564</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>83.96688854044564</v>
       </c>
       <c r="J34" t="n">
-        <v>111.6347488791189</v>
+        <v>129.0895209873812</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279952</v>
+        <v>333.0767039362575</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>649.6365023847536</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760404</v>
+        <v>993.7935479843026</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>1335.201924690167</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>1634.531523610581</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>1867.13902404424</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088492</v>
+        <v>1944.749320196755</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.46409084602</v>
+        <v>1854.918862954283</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1663.232978781109</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1495.283422742292</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1495.283422742292</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621292</v>
+        <v>1495.283422742292</v>
       </c>
       <c r="W34" t="n">
-        <v>880.2242361621292</v>
+        <v>1495.283422742292</v>
       </c>
       <c r="X34" t="n">
-        <v>880.2242361621292</v>
+        <v>1267.293871844274</v>
       </c>
       <c r="Y34" t="n">
-        <v>880.2242361621292</v>
+        <v>1046.501292700744</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796247</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C35" t="n">
-        <v>552.807938939213</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="D35" t="n">
-        <v>194.5422403324625</v>
+        <v>1519.903490151843</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218339</v>
+        <v>1134.115237553599</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218339</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450752</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919558</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943746</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7022,22 +7022,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2320.988771034577</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034577</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622241</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039848</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916657</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.60582160917</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>3036.502954734813</v>
+        <v>1349.693838201989</v>
       </c>
       <c r="V37" t="n">
-        <v>2781.818466528926</v>
+        <v>1095.009349996102</v>
       </c>
       <c r="W37" t="n">
-        <v>2769.770901076125</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="X37" t="n">
-        <v>2541.781350178107</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y37" t="n">
-        <v>2320.988771034577</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1308.370295943747</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>939.4077790033357</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>939.4077790033357</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>553.6195264050914</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>553.6195264050914</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>138.5470762500879</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3319.366746521483</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3113.388998905705</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3113.388998905705</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2489.924953962485</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C40" t="n">
-        <v>2320.988771034578</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D40" t="n">
-        <v>2170.872131622242</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.959038039849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>3044.089480193525</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U40" t="n">
-        <v>3044.089480193525</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>3044.089480193525</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>2754.672310156564</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X40" t="n">
-        <v>2754.672310156564</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y40" t="n">
-        <v>2671.573418792725</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796256</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C41" t="n">
-        <v>552.807938939214</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D41" t="n">
-        <v>552.807938939214</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E41" t="n">
-        <v>167.0196863409697</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2489.924953962485</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>2170.872131622242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>3103.839206178697</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>3103.839206178697</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>3103.839206178697</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>3103.839206178697</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X43" t="n">
-        <v>2892.365997936255</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y43" t="n">
-        <v>2671.573418792725</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1175.300932605787</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>806.3384156653758</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>448.0727170586253</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218338</v>
@@ -7654,13 +7654,13 @@
         <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136264</v>
+        <v>2678.274518176915</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>1952.040104645721</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1561.900772669909</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.3679798527295</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C46" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124868</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218338</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218338</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672846</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U46" t="n">
-        <v>1645.778206672846</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V46" t="n">
-        <v>1391.093718466959</v>
+        <v>1161.740577577774</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.798574724517</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="X46" t="n">
-        <v>1082.809023826499</v>
+        <v>770.8336626268118</v>
       </c>
       <c r="Y46" t="n">
-        <v>862.0164446829692</v>
+        <v>550.0410834832817</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.8041889468121</v>
+        <v>256.7644825146879</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>261.34821032935</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
         <v>264.993021668346</v>
@@ -8060,19 +8060,19 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>180.3309306186853</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
-        <v>180.0744745527947</v>
+        <v>178.0347681206704</v>
       </c>
       <c r="N3" t="n">
-        <v>166.9104890920976</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>181.3015543884808</v>
       </c>
       <c r="P3" t="n">
         <v>175.0047203318838</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>255.9772818167572</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
         <v>252.0347206524205</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
         <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>264.7836813017771</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>179.4738158616228</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>167.4508656791093</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>165.5462778056219</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>171.2126495331726</v>
+        <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8470,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>152.431507502366</v>
       </c>
       <c r="Q8" t="n">
-        <v>115.9463031276017</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>37.58523665279752</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>128.8462753371189</v>
       </c>
       <c r="M9" t="n">
-        <v>38.71323123913473</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>74.46463238881992</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>148.9898075077041</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>19.39305680438891</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9643,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>189.7998007892655</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>331.5821306786537</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>264.0929452399226</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>92.86573124206927</v>
+        <v>310.4011377631397</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>109.0043389868307</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>121.5237450221179</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>208.7489307568509</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>17.43847836633041</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.16573524179461</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>60.92013885559174</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.0737619451694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>233.6440512519063</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>136.0481407176716</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>14.45549564589555</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>61.76674224145185</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>260.8244040287785</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>121.040742246837</v>
+        <v>144.7917070300927</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>271.2636035596114</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>77.02998538623081</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>159.6364462020391</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>12.85935595494726</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>171.9462208285111</v>
+        <v>122.5254343203216</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>207.7493562938737</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>173.568774018545</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>42.02872873825365</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>53.27888879774034</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>255.1805474109854</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>55.47844587228388</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>212.6372626956331</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>274.5959085383172</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>223.2931541675951</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.0110774513652</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>142.235404842365</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.3167509018938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>307.373551532013</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>10.63308358105655</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>155.8219150297615</v>
       </c>
       <c r="X43" t="n">
-        <v>16.35117922901952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.185375452084315</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>290.312918237494</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>207.030806031573</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>125.2348079241756</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>936928.4383490073</v>
+        <v>948926.7750174506</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773952.8562997073</v>
+        <v>773952.8562997072</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773952.8562997073</v>
+        <v>773952.8562997072</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773952.8562997072</v>
+        <v>931616.2929526339</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773952.8562997073</v>
+        <v>931616.2929526339</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773952.8562997073</v>
+        <v>930177.5309113762</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773952.8562997073</v>
+        <v>868688.8927691727</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773952.8562997071</v>
+        <v>773952.8562997072</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773952.8562997071</v>
+        <v>773952.8562997073</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773952.8562997074</v>
+        <v>773952.8562997072</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773952.8562997069</v>
+        <v>773952.856299707</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="F2" t="n">
         <v>426246.3737136506</v>
       </c>
-      <c r="F2" t="n">
-        <v>426246.3737136507</v>
-      </c>
       <c r="G2" t="n">
-        <v>426246.3737136509</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="H2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="I2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="J2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="K2" t="n">
+        <v>495712.4806499703</v>
+      </c>
+      <c r="L2" t="n">
+        <v>468371.2407134979</v>
+      </c>
+      <c r="M2" t="n">
         <v>426246.3737136508</v>
-      </c>
-      <c r="J2" t="n">
-        <v>426246.3737136506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>426246.3737136507</v>
-      </c>
-      <c r="L2" t="n">
-        <v>426246.3737136507</v>
-      </c>
-      <c r="M2" t="n">
-        <v>426246.3737136506</v>
       </c>
       <c r="N2" t="n">
         <v>426246.3737136509</v>
       </c>
       <c r="O2" t="n">
+        <v>426246.3737136509</v>
+      </c>
+      <c r="P2" t="n">
         <v>426246.3737136507</v>
-      </c>
-      <c r="P2" t="n">
-        <v>426246.3737136506</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>522181.8312805264</v>
+        <v>390131.5103087815</v>
       </c>
       <c r="E3" t="n">
-        <v>588322.4525872611</v>
+        <v>712570.4704484645</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>96558.96659736036</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573658</v>
+        <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317183812</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48942.54810855995</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>145591.4277075462</v>
+        <v>104119.236933325</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>392210.9417384904</v>
       </c>
       <c r="C4" t="n">
-        <v>389279.0943290079</v>
+        <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>255818.8554579765</v>
+        <v>289752.5823192172</v>
       </c>
       <c r="E4" t="n">
         <v>7330.627242042245</v>
@@ -26438,22 +26438,22 @@
         <v>7330.627242042245</v>
       </c>
       <c r="I4" t="n">
-        <v>7330.627242042245</v>
+        <v>38975.18638660161</v>
       </c>
       <c r="J4" t="n">
-        <v>7330.627242042245</v>
+        <v>38975.18638660161</v>
       </c>
       <c r="K4" t="n">
-        <v>7330.627242042257</v>
+        <v>38686.41308902499</v>
       </c>
       <c r="L4" t="n">
+        <v>26345.05552561775</v>
+      </c>
+      <c r="M4" t="n">
         <v>7330.627242042256</v>
       </c>
-      <c r="M4" t="n">
-        <v>7330.627242042245</v>
-      </c>
       <c r="N4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042256</v>
       </c>
       <c r="O4" t="n">
         <v>7330.627242042256</v>
@@ -26475,10 +26475,10 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>61182.4002062932</v>
+        <v>55083.00662299935</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26490,19 +26490,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96182.05235955244</v>
+      </c>
+      <c r="L5" t="n">
+        <v>87571.96736367258</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44647.60238243211</v>
+        <v>44647.60238243205</v>
       </c>
       <c r="C6" t="n">
-        <v>74205.21268055406</v>
+        <v>74205.21268055418</v>
       </c>
       <c r="D6" t="n">
-        <v>-326031.980779619</v>
+        <v>-221815.9930858208</v>
       </c>
       <c r="E6" t="n">
-        <v>-243713.046677046</v>
+        <v>-371437.2538363104</v>
       </c>
       <c r="F6" t="n">
-        <v>344609.4059102151</v>
+        <v>341133.216612154</v>
       </c>
       <c r="G6" t="n">
-        <v>344609.4059102153</v>
+        <v>341133.216612154</v>
       </c>
       <c r="H6" t="n">
-        <v>344609.4059102152</v>
+        <v>341133.2166121542</v>
       </c>
       <c r="I6" t="n">
-        <v>344609.4059102153</v>
+        <v>263762.6074687953</v>
       </c>
       <c r="J6" t="n">
-        <v>331400.9014044785</v>
+        <v>347113.069560419</v>
       </c>
       <c r="K6" t="n">
-        <v>343756.5954784967</v>
+        <v>360146.4701807845</v>
       </c>
       <c r="L6" t="n">
-        <v>295666.8578016551</v>
+        <v>352663.0232061404</v>
       </c>
       <c r="M6" t="n">
-        <v>199017.978202669</v>
+        <v>237013.9796788292</v>
       </c>
       <c r="N6" t="n">
-        <v>344609.4059102152</v>
+        <v>341133.2166121542</v>
       </c>
       <c r="O6" t="n">
-        <v>344609.4059102151</v>
+        <v>341133.2166121542</v>
       </c>
       <c r="P6" t="n">
-        <v>344609.4059102153</v>
+        <v>341133.2166121542</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>574.6112655851958</v>
+        <v>439.1974997200747</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,34 +26795,34 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>247.17556935092</v>
+        <v>195.4095580444362</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
+        <v>1194.51293060493</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1191.199346819384</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1049.58610675557</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>539.5900048660706</v>
+        <v>404.1762390009494</v>
       </c>
       <c r="E3" t="n">
-        <v>515.1654350081022</v>
+        <v>650.5792008732235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>193.3792513702973</v>
+        <v>141.6132400638136</v>
       </c>
       <c r="E4" t="n">
-        <v>584.2258860513724</v>
+        <v>635.9918973578565</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,28 +27032,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>363.1114752026374</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507643</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785545916</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.3792513702975</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2258860513723</v>
+        <v>417.8072460045786</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27263,13 +27263,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>193.3792513702973</v>
+        <v>141.6132400638136</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2258860513724</v>
+        <v>635.9918973578565</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>363.6485449916333</v>
       </c>
       <c r="F2" t="n">
-        <v>366.5079535155402</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>364.7274872087548</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>156.4264279942944</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>200.8555174238556</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>335.755204460977</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1623462603244</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>94.58647819830733</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>67.29218149826258</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20960569321311</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>46.60172783196104</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>155.5000147300514</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>201.2122489658431</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.1999615822278</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.3492459868608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,13 +27557,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>112.7808693041051</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>39.94242826331492</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.30015594424398</v>
+        <v>32.20428827091266</v>
       </c>
       <c r="R4" t="n">
-        <v>124.9446868416198</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>172.8106399958207</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -27636,7 +27636,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>179.7023195093443</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>87.22896370465668</v>
       </c>
       <c r="S5" t="n">
-        <v>152.0155225457752</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>168.683227789346</v>
+        <v>197.1337431616672</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>273.9559404895123</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>295.4446507367904</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>125.3247021109833</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>93.64874758401612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.68452591975692</v>
+        <v>41.68452591975693</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>204.3111862835872</v>
       </c>
       <c r="X6" t="n">
         <v>151.9766672228548</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>151.8863777966817</v>
       </c>
     </row>
     <row r="7">
@@ -27797,7 +27797,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>36.28794909357777</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>120.6574806831568</v>
       </c>
       <c r="S7" t="n">
-        <v>170.309704519026</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>171.9133374084145</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.7883353714722</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>252.5289288504543</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>159.7004763907915</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>165.8171731266866</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>224.289022004485</v>
+        <v>321.3926658584477</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>142.4068981816293</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>156.3810576685663</v>
+        <v>168.7860473757078</v>
       </c>
       <c r="T8" t="n">
-        <v>212.9838462873507</v>
+        <v>215.3668563781027</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1608533048342</v>
+        <v>251.2044034606903</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>132.3427004256987</v>
       </c>
       <c r="W8" t="n">
-        <v>102.065399366493</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>174.3215426340328</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>190.8283806116173</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.659887079664</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1075608561029</v>
+        <v>136.3988282015486</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>103.1117376857077</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>56.87115763629633</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.50425107681879</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>154.1359879782292</v>
       </c>
       <c r="T9" t="n">
-        <v>195.1829574394179</v>
+        <v>196.3569692397013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8792314913918</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>139.7238934826496</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>10.27313773286812</v>
       </c>
     </row>
     <row r="10">
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9547951090428</v>
+        <v>167.1989838671603</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>155.1856125938948</v>
       </c>
       <c r="I10" t="n">
-        <v>124.2895885902775</v>
+        <v>131.633010516209</v>
       </c>
       <c r="J10" t="n">
-        <v>20.10095368296675</v>
+        <v>37.36509888186916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>141.6823941047844</v>
       </c>
       <c r="S10" t="n">
-        <v>205.9587325266965</v>
+        <v>210.214276611343</v>
       </c>
       <c r="T10" t="n">
-        <v>223.5182567262316</v>
+        <v>224.5616086927334</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2625102156136</v>
+        <v>286.2758296024201</v>
       </c>
       <c r="V10" t="n">
-        <v>20.91033465306481</v>
+        <v>56.72808527939176</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>134.2494804050148</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>30.30009734460091</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>23.17509530765855</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.309995037528424</v>
+        <v>1.765618089326932</v>
       </c>
       <c r="H8" t="n">
-        <v>23.65723667808798</v>
+        <v>18.08213625731945</v>
       </c>
       <c r="I8" t="n">
-        <v>89.05608368431464</v>
+        <v>68.06899138877662</v>
       </c>
       <c r="J8" t="n">
-        <v>196.0579413164282</v>
+        <v>149.8546283090119</v>
       </c>
       <c r="K8" t="n">
-        <v>293.8400312550065</v>
+        <v>224.5932420302209</v>
       </c>
       <c r="L8" t="n">
-        <v>364.5345418847671</v>
+        <v>278.6277766314601</v>
       </c>
       <c r="M8" t="n">
-        <v>405.6149161334131</v>
+        <v>310.0270873275279</v>
       </c>
       <c r="N8" t="n">
-        <v>412.1781895337908</v>
+        <v>315.0436497238281</v>
       </c>
       <c r="O8" t="n">
-        <v>389.2081763793675</v>
+        <v>297.4867848480834</v>
       </c>
       <c r="P8" t="n">
-        <v>332.1801738903845</v>
+        <v>253.8980882678247</v>
       </c>
       <c r="Q8" t="n">
-        <v>249.4534766088977</v>
+        <v>190.6668904438039</v>
       </c>
       <c r="R8" t="n">
-        <v>145.105225776145</v>
+        <v>110.909507303683</v>
       </c>
       <c r="S8" t="n">
-        <v>52.63901191767901</v>
+        <v>40.23402221053751</v>
       </c>
       <c r="T8" t="n">
-        <v>10.11200327678068</v>
+        <v>7.72899318602865</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1847996030022739</v>
+        <v>0.1412494471461546</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.23595630710778</v>
+        <v>0.9446889616620476</v>
       </c>
       <c r="H9" t="n">
-        <v>11.93673591338303</v>
+        <v>9.123706550788723</v>
       </c>
       <c r="I9" t="n">
-        <v>42.55375881928102</v>
+        <v>32.52547521511875</v>
       </c>
       <c r="J9" t="n">
-        <v>116.7707667167048</v>
+        <v>89.25239001386917</v>
       </c>
       <c r="K9" t="n">
-        <v>199.579839292926</v>
+        <v>152.5465504452264</v>
       </c>
       <c r="L9" t="n">
-        <v>268.3597236112748</v>
+        <v>205.1176624871915</v>
       </c>
       <c r="M9" t="n">
-        <v>313.1631397439317</v>
+        <v>239.3626373474407</v>
       </c>
       <c r="N9" t="n">
-        <v>321.4516362069484</v>
+        <v>245.6978541122709</v>
       </c>
       <c r="O9" t="n">
-        <v>294.0654464547181</v>
+        <v>224.7655355407066</v>
       </c>
       <c r="P9" t="n">
-        <v>236.0134460476251</v>
+        <v>180.3941579510624</v>
       </c>
       <c r="Q9" t="n">
-        <v>157.7687384301089</v>
+        <v>120.5887172816326</v>
       </c>
       <c r="R9" t="n">
-        <v>76.73770826060411</v>
+        <v>58.65358307582434</v>
       </c>
       <c r="S9" t="n">
-        <v>22.95734631842738</v>
+        <v>17.54718312560864</v>
       </c>
       <c r="T9" t="n">
-        <v>4.981771255403724</v>
+        <v>3.807759455120269</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08131291494130133</v>
+        <v>0.06215058958302947</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.036184249415927</v>
+        <v>0.7919954912984953</v>
       </c>
       <c r="H10" t="n">
-        <v>9.212619962988883</v>
+        <v>7.041559913544809</v>
       </c>
       <c r="I10" t="n">
-        <v>31.16088633698079</v>
+        <v>23.8174644110493</v>
       </c>
       <c r="J10" t="n">
-        <v>73.25822643370603</v>
+        <v>55.99408123480362</v>
       </c>
       <c r="K10" t="n">
-        <v>120.3857700685049</v>
+        <v>92.01547617086153</v>
       </c>
       <c r="L10" t="n">
-        <v>154.0523383177097</v>
+        <v>117.7481296790509</v>
       </c>
       <c r="M10" t="n">
-        <v>162.4265910243529</v>
+        <v>124.148893240545</v>
       </c>
       <c r="N10" t="n">
-        <v>158.5644497310755</v>
+        <v>121.1969100457053</v>
       </c>
       <c r="O10" t="n">
-        <v>146.4599337265349</v>
+        <v>111.9449627155365</v>
       </c>
       <c r="P10" t="n">
-        <v>125.3217750384499</v>
+        <v>95.78825469304708</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.76630110336457</v>
+        <v>66.31882245773129</v>
       </c>
       <c r="R10" t="n">
-        <v>46.5906117964652</v>
+        <v>35.61099727238506</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05786551027574</v>
+        <v>13.80232142562923</v>
       </c>
       <c r="T10" t="n">
-        <v>4.427332702049868</v>
+        <v>3.383980735548116</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05651914087723243</v>
+        <v>0.04319975407082707</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33991,7 +33991,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138794</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="L2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>50.48273419507654</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="N3" t="n">
-        <v>48.44302776295223</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>50.48273419507654</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>46.40980178192011</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>5.212927593424824</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>45.25240582282281</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>51.62272937534497</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>15.01203678974196</v>
+        <v>137.9053389543994</v>
       </c>
       <c r="K8" t="n">
-        <v>73.75018021002592</v>
+        <v>4.503390985240401</v>
       </c>
       <c r="L8" t="n">
-        <v>128.7681269147798</v>
+        <v>42.86136166147287</v>
       </c>
       <c r="M8" t="n">
-        <v>175.2686829061404</v>
+        <v>79.68085410025517</v>
       </c>
       <c r="N8" t="n">
-        <v>182.7651259371999</v>
+        <v>85.63058612723717</v>
       </c>
       <c r="O8" t="n">
-        <v>159.1099649576808</v>
+        <v>67.38857342639668</v>
       </c>
       <c r="P8" t="n">
-        <v>100.9471781351149</v>
+        <v>175.0966000149212</v>
       </c>
       <c r="Q8" t="n">
-        <v>143.0940898620499</v>
+        <v>180.6761912292591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>116.0241753904469</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>61.73840031856702</v>
+        <v>14.70511147086737</v>
       </c>
       <c r="L9" t="n">
-        <v>129.8053438314006</v>
+        <v>195.4095580444362</v>
       </c>
       <c r="M9" t="n">
-        <v>209.7423370610481</v>
+        <v>97.22860342542239</v>
       </c>
       <c r="N9" t="n">
-        <v>190.1099241236151</v>
+        <v>188.8207744177575</v>
       </c>
       <c r="O9" t="n">
-        <v>151.4692020102736</v>
+        <v>82.16929109626213</v>
       </c>
       <c r="P9" t="n">
-        <v>102.0390386332948</v>
+        <v>195.4095580444362</v>
       </c>
       <c r="Q9" t="n">
-        <v>17.78696434408738</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>98.11627824262207</v>
+        <v>69.74598434497868</v>
       </c>
       <c r="L10" t="n">
-        <v>181.6423635780259</v>
+        <v>145.338154939367</v>
       </c>
       <c r="M10" t="n">
-        <v>202.0104679861935</v>
+        <v>163.7327702023856</v>
       </c>
       <c r="N10" t="n">
-        <v>202.6966221103041</v>
+        <v>165.3290824249339</v>
       </c>
       <c r="O10" t="n">
-        <v>171.0450616405745</v>
+        <v>136.5300906295761</v>
       </c>
       <c r="P10" t="n">
-        <v>122.6003343033433</v>
+        <v>93.06681395794057</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6042578516701838</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>742.1016362021768</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>839.6351315668727</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>601.284231795323</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37086,13 +37086,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37551,7 +37551,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -38098,7 +38098,7 @@
         <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340052</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
